--- a/biology/Zoologie/Fulica/Fulica.xlsx
+++ b/biology/Zoologie/Fulica/Fulica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fulica est un genre d'oiseaux de la famille des Rallidae. Il est constitué de 11 espèces de foulques[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fulica est un genre d'oiseaux de la famille des Rallidae. Il est constitué de 11 espèces de foulques.
 Les parents foulques construisent un nid avec des algues et des branchages, à proximité du bord des rivières ou sur les rebords des bateaux. Tandis que la femelle couve ses trois ou quatre œufs, le mâle continue inlassablement de consolider le nid, qui est souvent flottant, et parfois en construit un de rechange, si nécessaire.
 Malgré une ressemblance superficielle avec les canards, les foulques appartiennent à un ordre différent, gruiforme, tandis que les canards sont de l'ordre anseriforme.
 Les foulques, excellentes plongeuses, représentent parmi les membres de la famille des Rallidae le genre le plus adapté à la vie aquatique.
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international (ordre phylogénique) :
 Fulica cristata – Foulque à crête
